--- a/data/Teams.xlsx
+++ b/data/Teams.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreedevigattu/sree/projects/olympics2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7303334D-38BF-2545-AB77-7053CAAF109D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D4E38A-2976-984D-9F6C-37A2A2467898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$D$744</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -999,7 +1002,7 @@
   <dimension ref="A1:D744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11427,6 +11430,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D744" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>